--- a/data.xlsx
+++ b/data.xlsx
@@ -1,27 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamravelo/Desktop/software/work/video-merger/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86845250-9CC9-5742-AD31-6371EE79C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Questions for Eskaton" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Questions for Eskaton" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="253">
   <si>
     <t>Day</t>
   </si>
@@ -42,6 +33,723 @@
   </si>
   <si>
     <t>Voice Check</t>
+  </si>
+  <si>
+    <t>Corporate Compliance</t>
+  </si>
+  <si>
+    <t>Day1-Corporate-Compliance</t>
+  </si>
+  <si>
+    <t>9437be78-d06a-49c5-ba2e-6c1da11469ca</t>
+  </si>
+  <si>
+    <t>Natalie US Smart</t>
+  </si>
+  <si>
+    <t>Disaster Preparedness and Fire Safety</t>
+  </si>
+  <si>
+    <t>Day1-Disaster-Preparedness</t>
+  </si>
+  <si>
+    <t>dada3a7a-91e6-4aea-aec9-66b27ad4c333</t>
+  </si>
+  <si>
+    <t>Eskaton Theft and Loss</t>
+  </si>
+  <si>
+    <t>Day1-Eskaton-Theft</t>
+  </si>
+  <si>
+    <t>b02afd4a-e52e-45f2-9044-323759167f13</t>
+  </si>
+  <si>
+    <t>Infection Control</t>
+  </si>
+  <si>
+    <t>Day1-Infection-Control-Part-1</t>
+  </si>
+  <si>
+    <t>3aade60b-1fc8-4534-a9f3-8b7480032f0f</t>
+  </si>
+  <si>
+    <t>Day1-Infection-Control-Part-2</t>
+  </si>
+  <si>
+    <t>9983f02e-9556-46a3-a877-caa0711aae2c</t>
+  </si>
+  <si>
+    <t>HIPAA</t>
+  </si>
+  <si>
+    <t>Day1-HIPAA</t>
+  </si>
+  <si>
+    <t>a70416f5-b853-4d7d-9ee9-106eb0142967</t>
+  </si>
+  <si>
+    <t>Ali US Beaming</t>
+  </si>
+  <si>
+    <t>Elder Abuse and Neglect</t>
+  </si>
+  <si>
+    <t>Day1-Elder-Abuse</t>
+  </si>
+  <si>
+    <t>9f0e056d-12c1-4414-9fa7-e9a24edeb198</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/DMFEA+Mandated+Reporting.mp4</t>
+  </si>
+  <si>
+    <t>51676b07-fd5d-495a-99d6-44d8bb98b649</t>
+  </si>
+  <si>
+    <t>Supporting Residents Who Identify as LGBTQIA</t>
+  </si>
+  <si>
+    <t>Day1-LBTQIA-Part-1</t>
+  </si>
+  <si>
+    <t>6579d540-e298-4a15-a4da-10a8416222c6</t>
+  </si>
+  <si>
+    <t>Day1-LBTQIA-Part-2</t>
+  </si>
+  <si>
+    <t>22e2cb3d-3f04-4b28-8630-6bd39343d7ae</t>
+  </si>
+  <si>
+    <t>Eskaton Experience Standards</t>
+  </si>
+  <si>
+    <t>Day1-Eskaton-Experience-Part-1</t>
+  </si>
+  <si>
+    <t>83d6f7e4-528f-4155-b8e9-9ba8f30d3a24</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/ESKATON+SIX+EXPERIENCE+STANDARDS+REVISED+v2+(1080p)+(1).mp4</t>
+  </si>
+  <si>
+    <t>a7c20eae-640e-433f-9bdb-e7685eb09182</t>
+  </si>
+  <si>
+    <t>Day1-Eskaton-Experience-Part-2</t>
+  </si>
+  <si>
+    <t>8a84fdea-f962-456b-9c7c-0b23de1bf336</t>
+  </si>
+  <si>
+    <t>Day1-Eskaton-Experience-Part-3</t>
+  </si>
+  <si>
+    <t>9c272d9a-43e0-46ff-bb26-7d8983631a32</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Brene%CC%81+Brown+on+Empathy+(1).mp4</t>
+  </si>
+  <si>
+    <t>3866c38c-2a29-4989-8a64-677f9790f37e</t>
+  </si>
+  <si>
+    <t>Cultural Competency</t>
+  </si>
+  <si>
+    <t>Day1-Cultural-Competency</t>
+  </si>
+  <si>
+    <t>8c4f227c-b04e-43a5-901a-f2cb3e96dc61</t>
+  </si>
+  <si>
+    <t>Workplace Violence</t>
+  </si>
+  <si>
+    <t>Day1-Workplace-Violence</t>
+  </si>
+  <si>
+    <t>3a4a124e-e370-4815-b62b-dc1b9b11b45d</t>
+  </si>
+  <si>
+    <t>Workplace Wellness</t>
+  </si>
+  <si>
+    <t>Day1-Workplace-Wellness</t>
+  </si>
+  <si>
+    <t>afbae3f8-3366-4217-90d0-a93690ba7151</t>
+  </si>
+  <si>
+    <t>Eskaton Introduction</t>
+  </si>
+  <si>
+    <t>Day1-Introduction-Part1</t>
+  </si>
+  <si>
+    <t>0b5abe02-c6b9-4e57-bc17-016fe0b7e40f</t>
+  </si>
+  <si>
+    <t>Day1-Introduction-Part2</t>
+  </si>
+  <si>
+    <t>b1d3db5e-69c9-41d7-acac-bba34a379e42</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/An+Introduction+to+the+Eskaton+Foundation.mp4</t>
+  </si>
+  <si>
+    <t>aa5da272-eff3-4cc6-8df9-62e177a93c78</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Meet+Jacqueline+-+Age+is+Beautiful.mp4</t>
+  </si>
+  <si>
+    <t>6aa97c32-3bb8-4433-8dae-1cccbd1b1d4d</t>
+  </si>
+  <si>
+    <t>Eskaton Philosophy of Care</t>
+  </si>
+  <si>
+    <t>Day1-Eskaton-Philosophy</t>
+  </si>
+  <si>
+    <t>13b85387-8d05-47a1-9ca1-4b8983688c23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-0GmeE5AVCk</t>
+  </si>
+  <si>
+    <t>Understanding Causes Types and Experience of Neurocognitive Disorders</t>
+  </si>
+  <si>
+    <t>Day2-Understanding-Causes</t>
+  </si>
+  <si>
+    <t>d8ae5f08-6493-4c6c-986f-ec9ea7295ed5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q_sWiwI3yP0</t>
+  </si>
+  <si>
+    <t>150381d2-5032-4d87-9240-e20caba0cb64</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Dementia+%26+Sensory+Challenges+-+My+life+living+with+dementia.mp4</t>
+  </si>
+  <si>
+    <t>d7e1f03f-5a0f-47ab-a686-cc39704083b7</t>
+  </si>
+  <si>
+    <t>Combating Stereotypes of Neurocognitive Disorders</t>
+  </si>
+  <si>
+    <t>Day2-Combating-Steretoypes-Part1</t>
+  </si>
+  <si>
+    <t>c867d2d6-4079-4291-b8b3-e6989ba786bf</t>
+  </si>
+  <si>
+    <t>Day2-Combating-Steretoypes-Part2</t>
+  </si>
+  <si>
+    <t>7bffffde-c120-40d6-b5a5-083d50fa38a7</t>
+  </si>
+  <si>
+    <t>Resolving Unmet Needs</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-1</t>
+  </si>
+  <si>
+    <t>b6155c3d-1479-46d5-9933-d763fa83aa09</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-2</t>
+  </si>
+  <si>
+    <t>6cdbfe8f-aa58-48e9-ba0a-22cbd70b1800</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-3</t>
+  </si>
+  <si>
+    <t>99c51ef9-2eff-402b-af27-0146422103f4</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-4</t>
+  </si>
+  <si>
+    <t>d0aef146-9dae-4150-8155-715e982dafd7</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-5</t>
+  </si>
+  <si>
+    <t>b60493bf-b36c-41ce-95c9-2dd158eb1f6a</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-6</t>
+  </si>
+  <si>
+    <t>b172ca75-cbc8-4891-bdb0-417542937c0d</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-7</t>
+  </si>
+  <si>
+    <t>78650be6-469c-4f06-84d1-5d79d0bcaf1f</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-8</t>
+  </si>
+  <si>
+    <t>95a6b06e-7288-418b-8ba8-1e7d8bc786ca</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-9</t>
+  </si>
+  <si>
+    <t>04476a17-0307-475a-9b84-3388bab73b90</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-10</t>
+  </si>
+  <si>
+    <t>f83ef545-35f9-463a-81de-8c6133d12539</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-11</t>
+  </si>
+  <si>
+    <t>49b27f77-f7a4-4796-b3bb-c56b2fdd6ba2</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-12</t>
+  </si>
+  <si>
+    <t>c1e46122-0ae8-47e2-8369-4301937f72f4</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-13</t>
+  </si>
+  <si>
+    <t>002d72e4-d518-485b-9fbe-a75887574c78</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-14</t>
+  </si>
+  <si>
+    <t>c1aca5b5-02b6-48a2-9539-d836ea1a52b6</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-15</t>
+  </si>
+  <si>
+    <t>537e2820-cbb5-46b3-868e-a15bd8e9a938</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-16</t>
+  </si>
+  <si>
+    <t>7317433f-ea39-40b4-a467-3f6e028eb706</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-17</t>
+  </si>
+  <si>
+    <t>77333ed4-f1f4-41dd-98c9-aebd36908a6a</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-18</t>
+  </si>
+  <si>
+    <t>2209da17-b4fa-4e61-a8ae-471d00545de6</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-19</t>
+  </si>
+  <si>
+    <t>b05718d3-cbe0-4f7c-9dfc-71df226886bb</t>
+  </si>
+  <si>
+    <t>Day2-Unmet-Needs-Part-20</t>
+  </si>
+  <si>
+    <t>bf4e4f86-3a1a-472e-be0f-8897225ac633</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Happy_Part1.mp4</t>
+  </si>
+  <si>
+    <t>e3be3826-68d3-4d0a-b369-c9b12b0a413b</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Happy_Part2.mp4</t>
+  </si>
+  <si>
+    <t>19e50ea9-68de-47eb-a4ff-aae9793932ee</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Happy_Part3.mp4</t>
+  </si>
+  <si>
+    <t>2f09a672-0e33-4188-90cc-d2ac7cc27aea</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Happy_Part4.mp4</t>
+  </si>
+  <si>
+    <t>13b4b322-e0b8-4e93-b7f8-25eb46b89bbc</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Happy_Part5.mp4</t>
+  </si>
+  <si>
+    <t>709c6749-5db7-4541-baf6-67a89e54401e</t>
+  </si>
+  <si>
+    <t>Psychosocial Needs of Older Adults</t>
+  </si>
+  <si>
+    <t>Day2-Psychosocial-Needs</t>
+  </si>
+  <si>
+    <t>63cc04f8-6961-48b5-9741-5798351ec9c5</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/The+U-curve+of+happiness_+Why+old+age+is+a+time+of+psychological+bliss++Ashton+Applewhite.mp4</t>
+  </si>
+  <si>
+    <t>2a66d89d-06cc-46b7-a6ce-0251b79715db</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/8+Stages+of+Development+by+Erik+Erikson.mp4</t>
+  </si>
+  <si>
+    <t>11ab494e-2ca0-4a41-9db9-cdfe2df09e78</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xnZGEUA4oBk</t>
+  </si>
+  <si>
+    <t>144a355c-ef08-4b8d-ac70-7c606c7b0973</t>
+  </si>
+  <si>
+    <t>Interpreting Unmet Needs</t>
+  </si>
+  <si>
+    <t>Day2-Interpreting-Needs</t>
+  </si>
+  <si>
+    <t>3f7c2abc-36c2-44e4-881a-7af11394c50d</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Challenging+Behaviors+and+Dementia.mp4</t>
+  </si>
+  <si>
+    <t>1e1afee6-e9cc-4c03-ba54-35e37839bf69</t>
+  </si>
+  <si>
+    <t>Navigating Grief With Neurocognitive Disorders</t>
+  </si>
+  <si>
+    <t>Day3-Navigating-Grief</t>
+  </si>
+  <si>
+    <t>1dd03ae9-cb42-45d4-a968-fc03310d22a5</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Empathy_+The+Human+Connection+to+Patient+Care.mp4</t>
+  </si>
+  <si>
+    <t>cffbf812-208e-4589-a801-86d28acd5cc5</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/What+really+matters+at+the+end+of+life++BJ+Miller++TED.mp4</t>
+  </si>
+  <si>
+    <t>0c57cba9-f705-4682-a8d9-6a034c852460</t>
+  </si>
+  <si>
+    <t>Enhancing the Dining Experience Script</t>
+  </si>
+  <si>
+    <t>Day3-Dining-Experience</t>
+  </si>
+  <si>
+    <t>6f1f5fdc-387f-4289-90ec-c398e2174f0d</t>
+  </si>
+  <si>
+    <t>Creating a Person Directed Culture Script</t>
+  </si>
+  <si>
+    <t>Day3-Person-Directed-Culture-Part1</t>
+  </si>
+  <si>
+    <t>cafc0675-a375-4e0c-94a3-e8beba979eed</t>
+  </si>
+  <si>
+    <t>Day3-Person-Directed-Culture-Part2</t>
+  </si>
+  <si>
+    <t>54b3500d-d109-4d79-b752-46a2a8b5787a</t>
+  </si>
+  <si>
+    <t>Creating Supportive Environments Script</t>
+  </si>
+  <si>
+    <t>Day3-Supportive-Environments-Part1</t>
+  </si>
+  <si>
+    <t>b9c6a4ed-a60d-4914-9dfb-d3884d9a96be</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Understanding+Sensory+Changes+in+Dementia+-+an+animation+from+the+CAIT+and+Newcastle+Model+series.mp4</t>
+  </si>
+  <si>
+    <t>Day3-Supportive-Environments-Part2</t>
+  </si>
+  <si>
+    <t>721b0aa6-5bba-4662-bbae-8a73dbf83a41</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Dementia+from+the+inside.mp4</t>
+  </si>
+  <si>
+    <t>Day3-Supportive-Environments-Part3</t>
+  </si>
+  <si>
+    <t>50d44960-9ded-47f4-be17-5738eef31a6e</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/The+dementia+environment+in+a+care+home.mp4</t>
+  </si>
+  <si>
+    <t>Day3-Supportive-Environments-Part4</t>
+  </si>
+  <si>
+    <t>461d561d-c1f7-4686-a66d-16d59e0cd38b</t>
+  </si>
+  <si>
+    <t>Understanding Mental Health and Aging</t>
+  </si>
+  <si>
+    <t>Day3-Mental-Health-Part1</t>
+  </si>
+  <si>
+    <t>a1b8060e-6f0f-4ea7-8344-1a96f51b2043</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Let's+end+ageism++Ashton+Applewhite.mp4</t>
+  </si>
+  <si>
+    <t>f148129d-671b-4750-82ba-a1dc842c4671</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/RSA+Short+Vivek+Murthy+on+Loneliness+and+the+Power+of+Connection.mp4</t>
+  </si>
+  <si>
+    <t>Day3-Mental-Health-Part3</t>
+  </si>
+  <si>
+    <t>9217c174-2a4f-4f58-8944-b78cd78fd0aa</t>
+  </si>
+  <si>
+    <t>Day3-Mental-Health-Part4</t>
+  </si>
+  <si>
+    <t>b7fb0f17-d1a6-49d2-8f14-be9d95f91e16</t>
+  </si>
+  <si>
+    <t>Day3-Mental-Health-Part5</t>
+  </si>
+  <si>
+    <t>f34b62f0-4199-4b52-a6aa-205420ed4500</t>
+  </si>
+  <si>
+    <t>Understanding Physical Changes of Older Adults</t>
+  </si>
+  <si>
+    <t>Day4-Understanding-Physical-Changes-Part1</t>
+  </si>
+  <si>
+    <t>08aaaa28-9a4a-41e4-8e6b-c3368e29bf17</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Millennials+Show+Us+What+Old+Looks+Like++Disrupt+Aging.mp4</t>
+  </si>
+  <si>
+    <t>eac689b2-b457-4b2a-a59f-f0dbdb7219e4</t>
+  </si>
+  <si>
+    <t>Day4-Understanding-Physical-Changes-Part2</t>
+  </si>
+  <si>
+    <t>b46217c7-b69c-47c6-b667-70d142fe447b</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Visualizing+Visual+Impairments.mp4</t>
+  </si>
+  <si>
+    <t>382ce4d0-8ca8-4200-ba2b-49566f5a5c57</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Visualizing+Visual+Impairments_+Part+II.mp4</t>
+  </si>
+  <si>
+    <t>0e81b3e6-2a18-41e0-b65d-1ba835294f5e</t>
+  </si>
+  <si>
+    <t>Day4-Understanding-Physical-Changes-Part3</t>
+  </si>
+  <si>
+    <t>88cd148f-80fb-430c-890c-1042055ab88a</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Hearing+Loss+Simulation+-+What's+It+Like_.mp4</t>
+  </si>
+  <si>
+    <t>044bad8c-646e-4f3d-9350-beb055f1aa8a</t>
+  </si>
+  <si>
+    <t>Documentation Basics</t>
+  </si>
+  <si>
+    <t>Day4-Documentation-Basics-Part1</t>
+  </si>
+  <si>
+    <t>5da1b783-7c9c-44e7-ab8f-618782e6af21</t>
+  </si>
+  <si>
+    <t>Day4-Documentation-Basics-Part2</t>
+  </si>
+  <si>
+    <t>e6e0c879-50d7-4254-bad6-d50093134f9b</t>
+  </si>
+  <si>
+    <t>Applying Upstream Thinking to Falls</t>
+  </si>
+  <si>
+    <t>Day4-Falls</t>
+  </si>
+  <si>
+    <t>d4a3e5e2-5e98-47c8-85c8-d02a6fde313f</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Safely+You+Videps.mp4</t>
+  </si>
+  <si>
+    <t>14aef8a8-0d9c-46d6-8668-9feebc8ce22b</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Safely+You+Video+2.mp4</t>
+  </si>
+  <si>
+    <t>fe99449e-8eac-4c11-898d-0cbe98aec6c2</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Safely+You+Video+3.mp4</t>
+  </si>
+  <si>
+    <t>d2964eba-6ca3-4371-a35f-42cad72de012</t>
+  </si>
+  <si>
+    <t>Day4-Falls-Part2</t>
+  </si>
+  <si>
+    <t>f1e2bc79-58f7-4c10-90a1-70af89843af9</t>
+  </si>
+  <si>
+    <t>Supporting with Activities of Daily Living</t>
+  </si>
+  <si>
+    <t>Day4-Supporting-ADL</t>
+  </si>
+  <si>
+    <t>fa2a36ee-8fc0-4920-a64b-53f68e7cfecc</t>
+  </si>
+  <si>
+    <t>https://newco-bucket.s3.us-east-1.amazonaws.com/Eskaton/Gillette+Treo+Advertisement+Assisted+Shaving+(+Father+%26+Son+).mp4</t>
+  </si>
+  <si>
+    <t>9cc93c5e-23fa-4835-bf38-422e35633a60</t>
+  </si>
+  <si>
+    <t>Understanding postural supports</t>
+  </si>
+  <si>
+    <t>Day5-Postural-Support</t>
+  </si>
+  <si>
+    <t>2556fca0-7799-44ed-aee4-fba491c2cab8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All slides </t>
+  </si>
+  <si>
+    <t>Person-Directed End of Life Support</t>
+  </si>
+  <si>
+    <t>Day5-EOL-Support</t>
+  </si>
+  <si>
+    <t>2a8d2355-45de-4104-b28b-fb8d047a8b17</t>
+  </si>
+  <si>
+    <t>Sound edits</t>
+  </si>
+  <si>
+    <t>Observing and Reporting Changes</t>
+  </si>
+  <si>
+    <t>Day5-Reporting-Changes-Part1</t>
+  </si>
+  <si>
+    <t>dfc697de-8a8a-4f1d-970d-4686e205c399</t>
+  </si>
+  <si>
+    <t>/grammer</t>
+  </si>
+  <si>
+    <t>Day5-Reporting-Changes-Part2</t>
+  </si>
+  <si>
+    <t>ba0be4df-987d-436d-90a6-fbd0d978890c</t>
+  </si>
+  <si>
+    <t>Done!!</t>
+  </si>
+  <si>
+    <t>Medication Policies and Procedures</t>
+  </si>
+  <si>
+    <t>Day5-Medication-Part1</t>
+  </si>
+  <si>
+    <t>49a12115-3228-46e9-834b-203837f7f06c</t>
+  </si>
+  <si>
+    <t>Slide 4 needs clip</t>
+  </si>
+  <si>
+    <t>Day5-Medication-Part2</t>
+  </si>
+  <si>
+    <t>70f0ea04-a1a7-46be-ad9d-d3bb8b0c7d42</t>
+  </si>
+  <si>
+    <t>Understanding Restricted and Prohibited Conditions</t>
+  </si>
+  <si>
+    <t>Day5-Restricted-Conditions</t>
+  </si>
+  <si>
+    <t>8cd8ef39-1629-4710-ab86-0fa6309ac89a</t>
   </si>
   <si>
     <t>Questions to Ask Eskaton</t>
@@ -68,73 +776,185 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -324,35 +1144,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
+    <col customWidth="1" min="2" max="2" width="40.75"/>
+    <col customWidth="1" min="3" max="3" width="34.75"/>
+    <col customWidth="1" min="5" max="5" width="36.38"/>
+    <col customWidth="1" min="6" max="6" width="20.13"/>
+    <col customWidth="1" min="7" max="7" width="25.38"/>
+    <col customWidth="1" min="8" max="8" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,63 +1192,2489 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D120" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D121" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D124" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I129" s="17"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" s="17"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="2"/>
+      <c r="I131" s="17"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E9"/>
+    <hyperlink r:id="rId2" ref="E14"/>
+    <hyperlink r:id="rId3" ref="E18"/>
+    <hyperlink r:id="rId4" ref="E25"/>
+    <hyperlink r:id="rId5" ref="E27"/>
+    <hyperlink r:id="rId6" ref="E30"/>
+    <hyperlink r:id="rId7" ref="E33"/>
+    <hyperlink r:id="rId8" ref="E35"/>
+    <hyperlink r:id="rId9" ref="E59"/>
+    <hyperlink r:id="rId10" ref="E61"/>
+    <hyperlink r:id="rId11" ref="E63"/>
+    <hyperlink r:id="rId12" ref="E65"/>
+    <hyperlink r:id="rId13" ref="E67"/>
+    <hyperlink r:id="rId14" ref="E70"/>
+    <hyperlink r:id="rId15" ref="E72"/>
+    <hyperlink r:id="rId16" ref="E74"/>
+    <hyperlink r:id="rId17" ref="E77"/>
+    <hyperlink r:id="rId18" ref="E80"/>
+    <hyperlink r:id="rId19" ref="E82"/>
+    <hyperlink r:id="rId20" ref="E88"/>
+    <hyperlink r:id="rId21" ref="E90"/>
+    <hyperlink r:id="rId22" ref="E92"/>
+    <hyperlink r:id="rId23" ref="E95"/>
+    <hyperlink r:id="rId24" ref="E97"/>
+    <hyperlink r:id="rId25" ref="E102"/>
+    <hyperlink r:id="rId26" ref="E105"/>
+    <hyperlink r:id="rId27" ref="E107"/>
+    <hyperlink r:id="rId28" ref="E110"/>
+    <hyperlink r:id="rId29" ref="E115"/>
+    <hyperlink r:id="rId30" ref="E117"/>
+    <hyperlink r:id="rId31" ref="E119"/>
+    <hyperlink r:id="rId32" ref="E123"/>
+  </hyperlinks>
+  <drawing r:id="rId33"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="H7" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>